--- a/biology/Zoologie/Brookesia_ramanantsoai/Brookesia_ramanantsoai.xlsx
+++ b/biology/Zoologie/Brookesia_ramanantsoai/Brookesia_ramanantsoai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia ramanantsoai est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia ramanantsoai est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce caméléon nain est de petite taille, diurne, et vit au sol ou sur les branches basses des forêts.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia ramanantsoai et Brookesia dentata ont été considérées comme synonymes par Raxworthy &amp; Nussbaum, 1995[2], cette synonymie a été levée par Glaw et all., 1999[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia ramanantsoai et Brookesia dentata ont été considérées comme synonymes par Raxworthy &amp; Nussbaum, 1995, cette synonymie a été levée par Glaw et all., 1999.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Guy A. Ramanantsoa.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brygoo &amp; Domergue, 1975 "1974" : Notes sur les Brookesia de Madagascar. IX. Observations sur B. tuberculata Mocquard, 1894, B. ramanantsoai sp. nov. et B. peyrierasi nom. nov. (Reptilia, Squamata, Chamaeleontidae). Bulletin du Muséum national d'Histoire naturelle, Paris, vol. 189 n. 267, p. 1769-1782.</t>
         </is>
